--- a/src/ssd/SSD Details.xlsx
+++ b/src/ssd/SSD Details.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$77</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -727,9 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1244,16 +1242,16 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>74</v>
       </c>
     </row>
